--- a/Result_data/Kmeans_DE_SVM_10_10.xlsx
+++ b/Result_data/Kmeans_DE_SVM_10_10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -10313,7 +10313,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
